--- a/natmiOut/OldD0/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +525,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.3530506256266</v>
+        <v>15.59657533333333</v>
       </c>
       <c r="H2">
-        <v>15.3530506256266</v>
+        <v>46.789726</v>
       </c>
       <c r="I2">
-        <v>0.474278730793593</v>
+        <v>0.4757744772251148</v>
       </c>
       <c r="J2">
-        <v>0.474278730793593</v>
+        <v>0.475774477225115</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.17320223505515</v>
+        <v>11.51598433333333</v>
       </c>
       <c r="N2">
-        <v>1.17320223505515</v>
+        <v>34.547953</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9063460549271956</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9063460549271956</v>
       </c>
       <c r="Q2">
-        <v>18.0122333089</v>
+        <v>179.6099171923198</v>
       </c>
       <c r="R2">
-        <v>18.0122333089</v>
+        <v>1616.489254730878</v>
       </c>
       <c r="S2">
-        <v>0.474278730793593</v>
+        <v>0.4312163204680317</v>
       </c>
       <c r="T2">
-        <v>0.474278730793593</v>
+        <v>0.4312163204680318</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,57 +590,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.28457329240808</v>
+        <v>15.59657533333333</v>
       </c>
       <c r="H3">
-        <v>6.28457329240808</v>
+        <v>46.789726</v>
       </c>
       <c r="I3">
-        <v>0.1941398825147799</v>
+        <v>0.4757744772251148</v>
       </c>
       <c r="J3">
-        <v>0.1941398825147799</v>
+        <v>0.475774477225115</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.17320223505515</v>
+        <v>1.181969666666667</v>
       </c>
       <c r="N3">
-        <v>1.17320223505515</v>
+        <v>3.545909</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.09302492200567822</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.09302492200567822</v>
       </c>
       <c r="Q3">
-        <v>7.373075433021063</v>
+        <v>18.43467894788155</v>
       </c>
       <c r="R3">
-        <v>7.373075433021063</v>
+        <v>165.912110530934</v>
       </c>
       <c r="S3">
-        <v>0.1941398825147799</v>
+        <v>0.04425888363615864</v>
       </c>
       <c r="T3">
-        <v>0.1941398825147799</v>
+        <v>0.04425888363615865</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,427 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>15.59657533333333</v>
+      </c>
+      <c r="H4">
+        <v>46.789726</v>
+      </c>
+      <c r="I4">
+        <v>0.4757744772251148</v>
+      </c>
+      <c r="J4">
+        <v>0.475774477225115</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.007992333333333334</v>
+      </c>
+      <c r="N4">
+        <v>0.023977</v>
+      </c>
+      <c r="O4">
+        <v>0.0006290230671261296</v>
+      </c>
+      <c r="P4">
+        <v>0.0006290230671261296</v>
+      </c>
+      <c r="Q4">
+        <v>0.1246530289224445</v>
+      </c>
+      <c r="R4">
+        <v>1.121877260302</v>
+      </c>
+      <c r="S4">
+        <v>0.0002992731209244726</v>
+      </c>
+      <c r="T4">
+        <v>0.0002992731209244727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>10.7337425987326</v>
-      </c>
-      <c r="H4">
-        <v>10.7337425987326</v>
-      </c>
-      <c r="I4">
-        <v>0.3315813866916271</v>
-      </c>
-      <c r="J4">
-        <v>0.3315813866916271</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1.17320223505515</v>
-      </c>
-      <c r="N4">
-        <v>1.17320223505515</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>12.59285080733976</v>
-      </c>
-      <c r="R4">
-        <v>12.59285080733976</v>
-      </c>
-      <c r="S4">
-        <v>0.3315813866916271</v>
-      </c>
-      <c r="T4">
-        <v>0.3315813866916271</v>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6.399531333333333</v>
+      </c>
+      <c r="H5">
+        <v>19.198594</v>
+      </c>
+      <c r="I5">
+        <v>0.1952180917624358</v>
+      </c>
+      <c r="J5">
+        <v>0.1952180917624358</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>11.51598433333333</v>
+      </c>
+      <c r="N5">
+        <v>34.547953</v>
+      </c>
+      <c r="O5">
+        <v>0.9063460549271956</v>
+      </c>
+      <c r="P5">
+        <v>0.9063460549271956</v>
+      </c>
+      <c r="Q5">
+        <v>73.69690257534245</v>
+      </c>
+      <c r="R5">
+        <v>663.272123178082</v>
+      </c>
+      <c r="S5">
+        <v>0.1769351473192989</v>
+      </c>
+      <c r="T5">
+        <v>0.1769351473192989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>6.399531333333333</v>
+      </c>
+      <c r="H6">
+        <v>19.198594</v>
+      </c>
+      <c r="I6">
+        <v>0.1952180917624358</v>
+      </c>
+      <c r="J6">
+        <v>0.1952180917624358</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.181969666666667</v>
+      </c>
+      <c r="N6">
+        <v>3.545909</v>
+      </c>
+      <c r="O6">
+        <v>0.09302492200567822</v>
+      </c>
+      <c r="P6">
+        <v>0.09302492200567822</v>
+      </c>
+      <c r="Q6">
+        <v>7.564051916882888</v>
+      </c>
+      <c r="R6">
+        <v>68.076467251946</v>
+      </c>
+      <c r="S6">
+        <v>0.01816014776029792</v>
+      </c>
+      <c r="T6">
+        <v>0.01816014776029792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>6.399531333333333</v>
+      </c>
+      <c r="H7">
+        <v>19.198594</v>
+      </c>
+      <c r="I7">
+        <v>0.1952180917624358</v>
+      </c>
+      <c r="J7">
+        <v>0.1952180917624358</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.007992333333333334</v>
+      </c>
+      <c r="N7">
+        <v>0.023977</v>
+      </c>
+      <c r="O7">
+        <v>0.0006290230671261296</v>
+      </c>
+      <c r="P7">
+        <v>0.0006290230671261296</v>
+      </c>
+      <c r="Q7">
+        <v>0.05114718759311111</v>
+      </c>
+      <c r="R7">
+        <v>0.4603246883380001</v>
+      </c>
+      <c r="S7">
+        <v>0.0001227966828389176</v>
+      </c>
+      <c r="T7">
+        <v>0.0001227966828389176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10.78533933333333</v>
+      </c>
+      <c r="H8">
+        <v>32.356018</v>
+      </c>
+      <c r="I8">
+        <v>0.3290074310124493</v>
+      </c>
+      <c r="J8">
+        <v>0.3290074310124493</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>11.51598433333333</v>
+      </c>
+      <c r="N8">
+        <v>34.547953</v>
+      </c>
+      <c r="O8">
+        <v>0.9063460549271956</v>
+      </c>
+      <c r="P8">
+        <v>0.9063460549271956</v>
+      </c>
+      <c r="Q8">
+        <v>124.2037987923504</v>
+      </c>
+      <c r="R8">
+        <v>1117.834189131154</v>
+      </c>
+      <c r="S8">
+        <v>0.2981945871398649</v>
+      </c>
+      <c r="T8">
+        <v>0.2981945871398649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.78533933333333</v>
+      </c>
+      <c r="H9">
+        <v>32.356018</v>
+      </c>
+      <c r="I9">
+        <v>0.3290074310124493</v>
+      </c>
+      <c r="J9">
+        <v>0.3290074310124493</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.181969666666667</v>
+      </c>
+      <c r="N9">
+        <v>3.545909</v>
+      </c>
+      <c r="O9">
+        <v>0.09302492200567822</v>
+      </c>
+      <c r="P9">
+        <v>0.09302492200567822</v>
+      </c>
+      <c r="Q9">
+        <v>12.74794393670689</v>
+      </c>
+      <c r="R9">
+        <v>114.731495430362</v>
+      </c>
+      <c r="S9">
+        <v>0.03060589060922165</v>
+      </c>
+      <c r="T9">
+        <v>0.03060589060922166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10.78533933333333</v>
+      </c>
+      <c r="H10">
+        <v>32.356018</v>
+      </c>
+      <c r="I10">
+        <v>0.3290074310124493</v>
+      </c>
+      <c r="J10">
+        <v>0.3290074310124493</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.007992333333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.023977</v>
+      </c>
+      <c r="O10">
+        <v>0.0006290230671261296</v>
+      </c>
+      <c r="P10">
+        <v>0.0006290230671261296</v>
+      </c>
+      <c r="Q10">
+        <v>0.08620002706511111</v>
+      </c>
+      <c r="R10">
+        <v>0.7758002435860001</v>
+      </c>
+      <c r="S10">
+        <v>0.0002069532633627393</v>
+      </c>
+      <c r="T10">
+        <v>0.0002069532633627394</v>
       </c>
     </row>
   </sheetData>
